--- a/《Hadoop分布式存储与运算》知识点大纲修改0919.xlsx
+++ b/《Hadoop分布式存储与运算》知识点大纲修改0919.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Desktop/self_classes/hadoopAction/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD7CED-2B65-0C4C-AB40-6284F4EAE478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40280" yWindow="1340" windowWidth="25600" windowHeight="18100"/>
+    <workbookView xWindow="9260" yWindow="460" windowWidth="25300" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hadoop分布式存储于运算 知识点大纲" sheetId="3" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -462,8 +468,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -745,6 +751,48 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,60 +814,18 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -854,7 +860,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{AAB612A7-9263-43C2-A854-A8F884A703C7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAB612A7-9263-43C2-A854-A8F884A703C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1144,99 +1150,99 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.140625" customWidth="1"/>
+    <col min="1" max="1" width="19.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="54.1640625" customWidth="1"/>
+    <col min="3" max="3" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="34.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="67.5" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="26"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1" ht="171" customHeight="1">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="33"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" ht="60" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="26"/>
     </row>
     <row r="4" spans="1:6" ht="76.5" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="60" customHeight="1">
       <c r="A5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="29"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="60" customHeight="1">
       <c r="A6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-    </row>
-    <row r="7" spans="1:6" ht="50">
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="26"/>
+    </row>
+    <row r="7" spans="1:6" ht="54">
       <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
@@ -1256,7 +1262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="11" customFormat="1" ht="25">
+    <row r="8" spans="1:6" s="11" customFormat="1" ht="27">
       <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
@@ -1268,8 +1274,8 @@
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A9" s="17" t="s">
+    <row r="9" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A9" s="31" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -1281,7 +1287,7 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" s="11" customFormat="1" ht="27" customHeight="1">
-      <c r="A10" s="18"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="7" t="s">
         <v>67</v>
       </c>
@@ -1290,8 +1296,8 @@
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A11" s="32"/>
       <c r="B11" s="7" t="s">
         <v>68</v>
       </c>
@@ -1300,8 +1306,8 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A12" s="32"/>
       <c r="B12" s="7" t="s">
         <v>69</v>
       </c>
@@ -1310,8 +1316,8 @@
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A13" s="19"/>
+    <row r="13" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A13" s="33"/>
       <c r="B13" s="7" t="s">
         <v>70</v>
       </c>
@@ -1320,8 +1326,8 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A14" s="17" t="s">
+    <row r="14" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A14" s="31" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1333,7 +1339,7 @@
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" s="11" customFormat="1" ht="27" customHeight="1">
-      <c r="A15" s="18"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="7" t="s">
         <v>71</v>
       </c>
@@ -1342,8 +1348,8 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A16" s="32"/>
       <c r="B16" s="7" t="s">
         <v>72</v>
       </c>
@@ -1352,8 +1358,8 @@
       <c r="E16" s="1"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A17" s="32"/>
       <c r="B17" s="7" t="s">
         <v>73</v>
       </c>
@@ -1362,8 +1368,8 @@
       <c r="E17" s="1"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A18" s="32"/>
       <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
@@ -1372,8 +1378,8 @@
       <c r="E18" s="1"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A19" s="32"/>
       <c r="B19" s="7" t="s">
         <v>75</v>
       </c>
@@ -1382,8 +1388,8 @@
       <c r="E19" s="1"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A20" s="32"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
@@ -1392,8 +1398,8 @@
       <c r="E20" s="1"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A21" s="32"/>
       <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
@@ -1402,8 +1408,8 @@
       <c r="E21" s="1"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A22" s="18"/>
+    <row r="22" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A22" s="32"/>
       <c r="B22" s="7" t="s">
         <v>78</v>
       </c>
@@ -1412,8 +1418,8 @@
       <c r="E22" s="9"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A23" s="19"/>
+    <row r="23" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A23" s="33"/>
       <c r="B23" s="7" t="s">
         <v>70</v>
       </c>
@@ -1422,8 +1428,8 @@
       <c r="E23" s="9"/>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A24" s="31" t="s">
         <v>31</v>
       </c>
       <c r="B24" s="7" t="s">
@@ -1435,7 +1441,7 @@
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" ht="26" customHeight="1">
-      <c r="A25" s="18"/>
+      <c r="A25" s="32"/>
       <c r="B25" s="7" t="s">
         <v>47</v>
       </c>
@@ -1444,8 +1450,8 @@
       <c r="E25" s="9"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A26" s="18"/>
+    <row r="26" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A26" s="32"/>
       <c r="B26" s="7" t="s">
         <v>48</v>
       </c>
@@ -1454,8 +1460,8 @@
       <c r="E26" s="9"/>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A27" s="18"/>
+    <row r="27" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A27" s="32"/>
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
@@ -1464,8 +1470,8 @@
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
     </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A28" s="18"/>
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A28" s="32"/>
       <c r="B28" s="7" t="s">
         <v>50</v>
       </c>
@@ -1474,8 +1480,8 @@
       <c r="E28" s="9"/>
       <c r="F28" s="10"/>
     </row>
-    <row r="29" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A29" s="18"/>
+    <row r="29" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A29" s="32"/>
       <c r="B29" s="7" t="s">
         <v>51</v>
       </c>
@@ -1484,8 +1490,8 @@
       <c r="E29" s="9"/>
       <c r="F29" s="10"/>
     </row>
-    <row r="30" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A30" s="19"/>
+    <row r="30" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A30" s="33"/>
       <c r="B30" s="7" t="s">
         <v>70</v>
       </c>
@@ -1494,8 +1500,8 @@
       <c r="E30" s="9"/>
       <c r="F30" s="10"/>
     </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" ht="25">
-      <c r="A31" s="17" t="s">
+    <row r="31" spans="1:6" s="11" customFormat="1" ht="27">
+      <c r="A31" s="31" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="7" t="s">
@@ -1507,7 +1513,7 @@
       <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="27" customHeight="1">
-      <c r="A32" s="18"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="7" t="s">
         <v>26</v>
       </c>
@@ -1516,8 +1522,8 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="1:6" ht="25">
-      <c r="A33" s="18"/>
+    <row r="33" spans="1:6" ht="27">
+      <c r="A33" s="32"/>
       <c r="B33" s="7" t="s">
         <v>19</v>
       </c>
@@ -1526,8 +1532,8 @@
       <c r="E33" s="1"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" ht="25">
-      <c r="A34" s="18"/>
+    <row r="34" spans="1:6" ht="27">
+      <c r="A34" s="32"/>
       <c r="B34" s="7" t="s">
         <v>23</v>
       </c>
@@ -1536,8 +1542,8 @@
       <c r="E34" s="1"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="25">
-      <c r="A35" s="18"/>
+    <row r="35" spans="1:6" ht="27">
+      <c r="A35" s="32"/>
       <c r="B35" s="7" t="s">
         <v>20</v>
       </c>
@@ -1546,8 +1552,8 @@
       <c r="E35" s="1"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" ht="25">
-      <c r="A36" s="18"/>
+    <row r="36" spans="1:6" ht="27">
+      <c r="A36" s="32"/>
       <c r="B36" s="7" t="s">
         <v>21</v>
       </c>
@@ -1556,8 +1562,8 @@
       <c r="E36" s="1"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="25">
-      <c r="A37" s="18"/>
+    <row r="37" spans="1:6" ht="27">
+      <c r="A37" s="32"/>
       <c r="B37" s="7" t="s">
         <v>22</v>
       </c>
@@ -1566,8 +1572,8 @@
       <c r="E37" s="1"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="25">
-      <c r="A38" s="18"/>
+    <row r="38" spans="1:6" ht="27">
+      <c r="A38" s="32"/>
       <c r="B38" s="7" t="s">
         <v>24</v>
       </c>
@@ -1576,8 +1582,8 @@
       <c r="E38" s="1"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="25">
-      <c r="A39" s="18"/>
+    <row r="39" spans="1:6" ht="27">
+      <c r="A39" s="32"/>
       <c r="B39" s="7" t="s">
         <v>25</v>
       </c>
@@ -1586,8 +1592,8 @@
       <c r="E39" s="1"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="25">
-      <c r="A40" s="18"/>
+    <row r="40" spans="1:6" ht="27">
+      <c r="A40" s="32"/>
       <c r="B40" s="15" t="s">
         <v>30</v>
       </c>
@@ -1596,8 +1602,8 @@
       <c r="E40" s="9"/>
       <c r="F40" s="10"/>
     </row>
-    <row r="41" spans="1:6" ht="25">
-      <c r="A41" s="19"/>
+    <row r="41" spans="1:6" ht="27">
+      <c r="A41" s="33"/>
       <c r="B41" s="7" t="s">
         <v>70</v>
       </c>
@@ -1606,8 +1612,8 @@
       <c r="E41" s="9"/>
       <c r="F41" s="10"/>
     </row>
-    <row r="42" spans="1:6" ht="25">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:6" ht="27">
+      <c r="A42" s="31" t="s">
         <v>33</v>
       </c>
       <c r="B42" s="7" t="s">
@@ -1619,7 +1625,7 @@
       <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="26" customHeight="1">
-      <c r="A43" s="18"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="7" t="s">
         <v>27</v>
       </c>
@@ -1629,7 +1635,7 @@
       <c r="F43" s="1"/>
     </row>
     <row r="44" spans="1:6" ht="26" customHeight="1">
-      <c r="A44" s="18"/>
+      <c r="A44" s="32"/>
       <c r="B44" s="7" t="s">
         <v>81</v>
       </c>
@@ -1639,7 +1645,7 @@
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="26" customHeight="1">
-      <c r="A45" s="18"/>
+      <c r="A45" s="32"/>
       <c r="B45" s="7" t="s">
         <v>82</v>
       </c>
@@ -1649,7 +1655,7 @@
       <c r="F45" s="1"/>
     </row>
     <row r="46" spans="1:6" ht="26" customHeight="1">
-      <c r="A46" s="18"/>
+      <c r="A46" s="32"/>
       <c r="B46" s="7" t="s">
         <v>83</v>
       </c>
@@ -1659,7 +1665,7 @@
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" ht="26" customHeight="1">
-      <c r="A47" s="18"/>
+      <c r="A47" s="32"/>
       <c r="B47" s="7" t="s">
         <v>84</v>
       </c>
@@ -1669,7 +1675,7 @@
       <c r="F47" s="1"/>
     </row>
     <row r="48" spans="1:6" ht="26" customHeight="1">
-      <c r="A48" s="18"/>
+      <c r="A48" s="32"/>
       <c r="B48" s="7" t="s">
         <v>85</v>
       </c>
@@ -1679,7 +1685,7 @@
       <c r="F48" s="1"/>
     </row>
     <row r="49" spans="1:6" ht="26" customHeight="1">
-      <c r="A49" s="18"/>
+      <c r="A49" s="32"/>
       <c r="B49" s="7" t="s">
         <v>86</v>
       </c>
@@ -1688,8 +1694,8 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
     </row>
-    <row r="50" spans="1:6" ht="25">
-      <c r="A50" s="18"/>
+    <row r="50" spans="1:6" ht="27">
+      <c r="A50" s="32"/>
       <c r="B50" s="7" t="s">
         <v>28</v>
       </c>
@@ -1698,8 +1704,8 @@
       <c r="E50" s="1"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" ht="25">
-      <c r="A51" s="18"/>
+    <row r="51" spans="1:6" ht="27">
+      <c r="A51" s="32"/>
       <c r="B51" s="7" t="s">
         <v>29</v>
       </c>
@@ -1708,8 +1714,8 @@
       <c r="E51" s="1"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" ht="25">
-      <c r="A52" s="18"/>
+    <row r="52" spans="1:6" ht="27">
+      <c r="A52" s="32"/>
       <c r="B52" s="7" t="s">
         <v>79</v>
       </c>
@@ -1718,8 +1724,8 @@
       <c r="E52" s="9"/>
       <c r="F52" s="10"/>
     </row>
-    <row r="53" spans="1:6" ht="25">
-      <c r="A53" s="18"/>
+    <row r="53" spans="1:6" ht="27">
+      <c r="A53" s="32"/>
       <c r="B53" s="7" t="s">
         <v>70</v>
       </c>
@@ -1728,8 +1734,8 @@
       <c r="E53" s="9"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" ht="25">
-      <c r="A54" s="20" t="s">
+    <row r="54" spans="1:6" ht="27">
+      <c r="A54" s="34" t="s">
         <v>34</v>
       </c>
       <c r="B54" s="7" t="s">
@@ -1741,7 +1747,7 @@
       <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" ht="26" customHeight="1">
-      <c r="A55" s="20"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="7" t="s">
         <v>54</v>
       </c>
@@ -1750,8 +1756,8 @@
       <c r="E55" s="9"/>
       <c r="F55" s="10"/>
     </row>
-    <row r="56" spans="1:6" ht="25">
-      <c r="A56" s="20"/>
+    <row r="56" spans="1:6" ht="54">
+      <c r="A56" s="34"/>
       <c r="B56" s="15" t="s">
         <v>55</v>
       </c>
@@ -1760,8 +1766,8 @@
       <c r="E56" s="9"/>
       <c r="F56" s="10"/>
     </row>
-    <row r="57" spans="1:6" ht="50">
-      <c r="A57" s="20"/>
+    <row r="57" spans="1:6" ht="54">
+      <c r="A57" s="34"/>
       <c r="B57" s="7" t="s">
         <v>56</v>
       </c>
@@ -1770,8 +1776,8 @@
       <c r="E57" s="9"/>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" ht="25">
-      <c r="A58" s="20"/>
+    <row r="58" spans="1:6" ht="27">
+      <c r="A58" s="34"/>
       <c r="B58" s="7" t="s">
         <v>103</v>
       </c>
@@ -1780,8 +1786,8 @@
       <c r="E58" s="9"/>
       <c r="F58" s="10"/>
     </row>
-    <row r="59" spans="1:6" ht="25">
-      <c r="A59" s="20"/>
+    <row r="59" spans="1:6" ht="27">
+      <c r="A59" s="34"/>
       <c r="B59" s="7" t="s">
         <v>70</v>
       </c>
@@ -1790,8 +1796,8 @@
       <c r="E59" s="9"/>
       <c r="F59" s="10"/>
     </row>
-    <row r="60" spans="1:6" ht="25">
-      <c r="A60" s="20" t="s">
+    <row r="60" spans="1:6" ht="27">
+      <c r="A60" s="34" t="s">
         <v>35</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -1803,7 +1809,7 @@
       <c r="F60" s="10"/>
     </row>
     <row r="61" spans="1:6" ht="26" customHeight="1">
-      <c r="A61" s="20"/>
+      <c r="A61" s="34"/>
       <c r="B61" s="16" t="s">
         <v>36</v>
       </c>
@@ -1812,8 +1818,8 @@
       <c r="E61" s="9"/>
       <c r="F61" s="10"/>
     </row>
-    <row r="62" spans="1:6" ht="25">
-      <c r="A62" s="20"/>
+    <row r="62" spans="1:6" ht="27">
+      <c r="A62" s="34"/>
       <c r="B62" s="16" t="s">
         <v>52</v>
       </c>
@@ -1822,8 +1828,8 @@
       <c r="E62" s="9"/>
       <c r="F62" s="10"/>
     </row>
-    <row r="63" spans="1:6" ht="25">
-      <c r="A63" s="20"/>
+    <row r="63" spans="1:6" ht="27">
+      <c r="A63" s="34"/>
       <c r="B63" s="13" t="s">
         <v>37</v>
       </c>
@@ -1832,8 +1838,8 @@
       <c r="E63" s="9"/>
       <c r="F63" s="10"/>
     </row>
-    <row r="64" spans="1:6" ht="25">
-      <c r="A64" s="20"/>
+    <row r="64" spans="1:6" ht="27">
+      <c r="A64" s="34"/>
       <c r="B64" s="14" t="s">
         <v>38</v>
       </c>
@@ -1842,8 +1848,8 @@
       <c r="E64" s="9"/>
       <c r="F64" s="10"/>
     </row>
-    <row r="65" spans="1:6" ht="25">
-      <c r="A65" s="20"/>
+    <row r="65" spans="1:6" ht="27">
+      <c r="A65" s="34"/>
       <c r="B65" s="7" t="s">
         <v>70</v>
       </c>
@@ -1852,8 +1858,8 @@
       <c r="E65" s="9"/>
       <c r="F65" s="10"/>
     </row>
-    <row r="66" spans="1:6" ht="25">
-      <c r="A66" s="17" t="s">
+    <row r="66" spans="1:6" ht="27">
+      <c r="A66" s="31" t="s">
         <v>93</v>
       </c>
       <c r="B66" s="7" t="s">
@@ -1864,8 +1870,8 @@
       <c r="E66" s="9"/>
       <c r="F66" s="10"/>
     </row>
-    <row r="67" spans="1:6" ht="25">
-      <c r="A67" s="18"/>
+    <row r="67" spans="1:6" ht="27">
+      <c r="A67" s="32"/>
       <c r="B67" s="7" t="s">
         <v>94</v>
       </c>
@@ -1874,8 +1880,8 @@
       <c r="E67" s="9"/>
       <c r="F67" s="10"/>
     </row>
-    <row r="68" spans="1:6" ht="25">
-      <c r="A68" s="18"/>
+    <row r="68" spans="1:6" ht="27">
+      <c r="A68" s="32"/>
       <c r="B68" s="7" t="s">
         <v>95</v>
       </c>
@@ -1884,8 +1890,8 @@
       <c r="E68" s="9"/>
       <c r="F68" s="10"/>
     </row>
-    <row r="69" spans="1:6" ht="25">
-      <c r="A69" s="18"/>
+    <row r="69" spans="1:6" ht="27">
+      <c r="A69" s="32"/>
       <c r="B69" s="7" t="s">
         <v>96</v>
       </c>
@@ -1894,8 +1900,8 @@
       <c r="E69" s="9"/>
       <c r="F69" s="10"/>
     </row>
-    <row r="70" spans="1:6" ht="25">
-      <c r="A70" s="18"/>
+    <row r="70" spans="1:6" ht="27">
+      <c r="A70" s="32"/>
       <c r="B70" s="7" t="s">
         <v>97</v>
       </c>
@@ -1904,8 +1910,8 @@
       <c r="E70" s="9"/>
       <c r="F70" s="10"/>
     </row>
-    <row r="71" spans="1:6" ht="25">
-      <c r="A71" s="18"/>
+    <row r="71" spans="1:6" ht="27">
+      <c r="A71" s="32"/>
       <c r="B71" s="7" t="s">
         <v>98</v>
       </c>
@@ -1914,8 +1920,8 @@
       <c r="E71" s="9"/>
       <c r="F71" s="10"/>
     </row>
-    <row r="72" spans="1:6" ht="25">
-      <c r="A72" s="18"/>
+    <row r="72" spans="1:6" ht="27">
+      <c r="A72" s="32"/>
       <c r="B72" s="7" t="s">
         <v>99</v>
       </c>
@@ -1924,8 +1930,8 @@
       <c r="E72" s="9"/>
       <c r="F72" s="10"/>
     </row>
-    <row r="73" spans="1:6" ht="25">
-      <c r="A73" s="18"/>
+    <row r="73" spans="1:6" ht="27">
+      <c r="A73" s="32"/>
       <c r="B73" s="7" t="s">
         <v>100</v>
       </c>
@@ -1934,8 +1940,8 @@
       <c r="E73" s="9"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="25">
-      <c r="A74" s="19"/>
+    <row r="74" spans="1:6" ht="27">
+      <c r="A74" s="33"/>
       <c r="B74" s="7" t="s">
         <v>70</v>
       </c>
@@ -1944,8 +1950,8 @@
       <c r="E74" s="9"/>
       <c r="F74" s="10"/>
     </row>
-    <row r="75" spans="1:6" ht="25">
-      <c r="A75" s="34" t="s">
+    <row r="75" spans="1:6" ht="27">
+      <c r="A75" s="38" t="s">
         <v>101</v>
       </c>
       <c r="B75" s="7" t="s">
@@ -1957,8 +1963,8 @@
       <c r="F75" s="10"/>
     </row>
     <row r="76" spans="1:6" ht="26" customHeight="1">
-      <c r="A76" s="34"/>
-      <c r="B76" s="35" t="s">
+      <c r="A76" s="38"/>
+      <c r="B76" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C76" s="9"/>
@@ -1966,9 +1972,9 @@
       <c r="E76" s="9"/>
       <c r="F76" s="10"/>
     </row>
-    <row r="77" spans="1:6" ht="25">
-      <c r="A77" s="34"/>
-      <c r="B77" s="35" t="s">
+    <row r="77" spans="1:6" ht="27">
+      <c r="A77" s="38"/>
+      <c r="B77" s="17" t="s">
         <v>39</v>
       </c>
       <c r="C77" s="9"/>
@@ -1976,9 +1982,9 @@
       <c r="E77" s="9"/>
       <c r="F77" s="10"/>
     </row>
-    <row r="78" spans="1:6" ht="25">
-      <c r="A78" s="34"/>
-      <c r="B78" s="35" t="s">
+    <row r="78" spans="1:6" ht="27">
+      <c r="A78" s="38"/>
+      <c r="B78" s="17" t="s">
         <v>45</v>
       </c>
       <c r="C78" s="9"/>
@@ -1986,9 +1992,9 @@
       <c r="E78" s="9"/>
       <c r="F78" s="10"/>
     </row>
-    <row r="79" spans="1:6" ht="25">
-      <c r="A79" s="34"/>
-      <c r="B79" s="35" t="s">
+    <row r="79" spans="1:6" ht="27">
+      <c r="A79" s="38"/>
+      <c r="B79" s="17" t="s">
         <v>46</v>
       </c>
       <c r="C79" s="9"/>
@@ -1996,9 +2002,9 @@
       <c r="E79" s="9"/>
       <c r="F79" s="10"/>
     </row>
-    <row r="80" spans="1:6" ht="25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="35" t="s">
+    <row r="80" spans="1:6" ht="27">
+      <c r="A80" s="38"/>
+      <c r="B80" s="17" t="s">
         <v>40</v>
       </c>
       <c r="C80" s="9"/>
@@ -2006,9 +2012,9 @@
       <c r="E80" s="9"/>
       <c r="F80" s="10"/>
     </row>
-    <row r="81" spans="1:6" ht="25">
-      <c r="A81" s="34"/>
-      <c r="B81" s="35" t="s">
+    <row r="81" spans="1:6" ht="27">
+      <c r="A81" s="38"/>
+      <c r="B81" s="17" t="s">
         <v>41</v>
       </c>
       <c r="C81" s="9"/>
@@ -2016,9 +2022,9 @@
       <c r="E81" s="9"/>
       <c r="F81" s="10"/>
     </row>
-    <row r="82" spans="1:6" ht="25">
-      <c r="A82" s="34"/>
-      <c r="B82" s="35" t="s">
+    <row r="82" spans="1:6" ht="27">
+      <c r="A82" s="38"/>
+      <c r="B82" s="17" t="s">
         <v>42</v>
       </c>
       <c r="C82" s="9"/>
@@ -2026,9 +2032,9 @@
       <c r="E82" s="9"/>
       <c r="F82" s="10"/>
     </row>
-    <row r="83" spans="1:6" ht="25">
-      <c r="A83" s="34"/>
-      <c r="B83" s="35" t="s">
+    <row r="83" spans="1:6" ht="27">
+      <c r="A83" s="38"/>
+      <c r="B83" s="17" t="s">
         <v>43</v>
       </c>
       <c r="C83" s="9"/>
@@ -2036,9 +2042,9 @@
       <c r="E83" s="9"/>
       <c r="F83" s="10"/>
     </row>
-    <row r="84" spans="1:6" ht="25">
-      <c r="A84" s="34"/>
-      <c r="B84" s="35" t="s">
+    <row r="84" spans="1:6" ht="27">
+      <c r="A84" s="38"/>
+      <c r="B84" s="17" t="s">
         <v>44</v>
       </c>
       <c r="C84" s="9"/>
@@ -2046,9 +2052,9 @@
       <c r="E84" s="9"/>
       <c r="F84" s="10"/>
     </row>
-    <row r="85" spans="1:6" ht="25">
-      <c r="A85" s="34"/>
-      <c r="B85" s="35" t="s">
+    <row r="85" spans="1:6" ht="27">
+      <c r="A85" s="38"/>
+      <c r="B85" s="17" t="s">
         <v>57</v>
       </c>
       <c r="C85" s="9"/>
@@ -2056,9 +2062,9 @@
       <c r="E85" s="9"/>
       <c r="F85" s="10"/>
     </row>
-    <row r="86" spans="1:6" ht="25">
-      <c r="A86" s="34"/>
-      <c r="B86" s="35" t="s">
+    <row r="86" spans="1:6" ht="54">
+      <c r="A86" s="38"/>
+      <c r="B86" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C86" s="9"/>
@@ -2066,9 +2072,9 @@
       <c r="E86" s="9"/>
       <c r="F86" s="10"/>
     </row>
-    <row r="87" spans="1:6" ht="25">
-      <c r="A87" s="34"/>
-      <c r="B87" s="35" t="s">
+    <row r="87" spans="1:6" ht="27">
+      <c r="A87" s="38"/>
+      <c r="B87" s="17" t="s">
         <v>59</v>
       </c>
       <c r="C87" s="9"/>
@@ -2076,8 +2082,8 @@
       <c r="E87" s="9"/>
       <c r="F87" s="10"/>
     </row>
-    <row r="88" spans="1:6" ht="25">
-      <c r="A88" s="34"/>
+    <row r="88" spans="1:6" ht="27">
+      <c r="A88" s="38"/>
       <c r="B88" s="7" t="s">
         <v>70</v>
       </c>
@@ -2087,7 +2093,7 @@
       <c r="F88" s="10"/>
     </row>
     <row r="89" spans="1:6" ht="27" customHeight="1">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="35" t="s">
         <v>102</v>
       </c>
       <c r="B89" s="7" t="s">
@@ -2099,7 +2105,7 @@
       <c r="F89" s="10"/>
     </row>
     <row r="90" spans="1:6" ht="27" customHeight="1">
-      <c r="A90" s="22"/>
+      <c r="A90" s="36"/>
       <c r="B90" s="14" t="s">
         <v>87</v>
       </c>
@@ -2108,8 +2114,8 @@
       <c r="E90" s="9"/>
       <c r="F90" s="10"/>
     </row>
-    <row r="91" spans="1:6" ht="25">
-      <c r="A91" s="22"/>
+    <row r="91" spans="1:6" ht="27">
+      <c r="A91" s="36"/>
       <c r="B91" s="14" t="s">
         <v>88</v>
       </c>
@@ -2118,8 +2124,8 @@
       <c r="E91" s="9"/>
       <c r="F91" s="10"/>
     </row>
-    <row r="92" spans="1:6" ht="25">
-      <c r="A92" s="22"/>
+    <row r="92" spans="1:6" ht="27">
+      <c r="A92" s="36"/>
       <c r="B92" s="13" t="s">
         <v>89</v>
       </c>
@@ -2128,8 +2134,8 @@
       <c r="E92" s="9"/>
       <c r="F92" s="10"/>
     </row>
-    <row r="93" spans="1:6" ht="25">
-      <c r="A93" s="22"/>
+    <row r="93" spans="1:6" ht="27">
+      <c r="A93" s="36"/>
       <c r="B93" s="13" t="s">
         <v>90</v>
       </c>
@@ -2138,8 +2144,8 @@
       <c r="E93" s="9"/>
       <c r="F93" s="10"/>
     </row>
-    <row r="94" spans="1:6" ht="25">
-      <c r="A94" s="22"/>
+    <row r="94" spans="1:6" ht="27">
+      <c r="A94" s="36"/>
       <c r="B94" s="13" t="s">
         <v>91</v>
       </c>
@@ -2148,8 +2154,8 @@
       <c r="E94" s="9"/>
       <c r="F94" s="10"/>
     </row>
-    <row r="95" spans="1:6" ht="25">
-      <c r="A95" s="22"/>
+    <row r="95" spans="1:6" ht="27">
+      <c r="A95" s="36"/>
       <c r="B95" s="13" t="s">
         <v>92</v>
       </c>
@@ -2158,8 +2164,8 @@
       <c r="E95" s="9"/>
       <c r="F95" s="10"/>
     </row>
-    <row r="96" spans="1:6" ht="25">
-      <c r="A96" s="23"/>
+    <row r="96" spans="1:6" ht="27">
+      <c r="A96" s="37"/>
       <c r="B96" s="7" t="s">
         <v>70</v>
       </c>
@@ -2168,8 +2174,8 @@
       <c r="E96" s="9"/>
       <c r="F96" s="10"/>
     </row>
-    <row r="97" spans="1:6" ht="25">
-      <c r="A97" s="18" t="s">
+    <row r="97" spans="1:6" ht="27">
+      <c r="A97" s="32" t="s">
         <v>64</v>
       </c>
       <c r="B97" s="7" t="s">
@@ -2181,7 +2187,7 @@
       <c r="F97" s="10"/>
     </row>
     <row r="98" spans="1:6" ht="27" customHeight="1">
-      <c r="A98" s="18"/>
+      <c r="A98" s="32"/>
       <c r="B98" s="7" t="s">
         <v>60</v>
       </c>
@@ -2190,9 +2196,9 @@
       <c r="E98" s="9"/>
       <c r="F98" s="10"/>
     </row>
-    <row r="99" spans="1:6" ht="25">
-      <c r="A99" s="18"/>
-      <c r="B99" s="36" t="s">
+    <row r="99" spans="1:6" ht="27">
+      <c r="A99" s="32"/>
+      <c r="B99" s="18" t="s">
         <v>63</v>
       </c>
       <c r="C99" s="9"/>
@@ -2200,35 +2206,35 @@
       <c r="E99" s="9"/>
       <c r="F99" s="10"/>
     </row>
-    <row r="100" spans="1:6" ht="25">
-      <c r="A100" s="18"/>
-      <c r="B100" s="37" t="s">
+    <row r="100" spans="1:6" ht="27">
+      <c r="A100" s="32"/>
+      <c r="B100" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="C100" s="38"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="38"/>
-      <c r="F100" s="38"/>
-    </row>
-    <row r="101" spans="1:6" ht="25">
-      <c r="A101" s="18"/>
+      <c r="C100" s="20"/>
+      <c r="D100" s="20"/>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+    </row>
+    <row r="101" spans="1:6" ht="27">
+      <c r="A101" s="32"/>
       <c r="B101" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C101" s="38"/>
-      <c r="D101" s="38"/>
-      <c r="E101" s="38"/>
-      <c r="F101" s="38"/>
+      <c r="C101" s="20"/>
+      <c r="D101" s="20"/>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
     </row>
     <row r="102" spans="1:6" ht="32" customHeight="1">
-      <c r="A102" s="19"/>
+      <c r="A102" s="33"/>
       <c r="B102" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C102" s="38"/>
-      <c r="D102" s="38"/>
-      <c r="E102" s="38"/>
-      <c r="F102" s="38"/>
+      <c r="C102" s="20"/>
+      <c r="D102" s="20"/>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
     </row>
     <row r="103" spans="1:6" ht="24.25" customHeight="1">
       <c r="C103" s="5"/>
@@ -2367,23 +2373,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A97:A102"/>
+    <mergeCell ref="A89:A96"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A75:A88"/>
+    <mergeCell ref="A66:A74"/>
+    <mergeCell ref="A9:A13"/>
+    <mergeCell ref="A14:A23"/>
+    <mergeCell ref="A24:A30"/>
+    <mergeCell ref="A31:A41"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A42:A53"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B5:F5"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B4:F4"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="A14:A23"/>
-    <mergeCell ref="A24:A30"/>
-    <mergeCell ref="A31:A41"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A42:A53"/>
-    <mergeCell ref="A97:A102"/>
-    <mergeCell ref="A89:A96"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A75:A88"/>
-    <mergeCell ref="A66:A74"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2398,14 +2404,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/《Hadoop分布式存储与运算》知识点大纲修改0919.xlsx
+++ b/《Hadoop分布式存储与运算》知识点大纲修改0919.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/josh/Desktop/self_classes/hadoopAction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33BD7CED-2B65-0C4C-AB40-6284F4EAE478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7564D815-73A9-2E49-AEF3-73D9012B5AD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9260" yWindow="460" windowWidth="25300" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="19980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hadoop分布式存储于运算 知识点大纲" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="103">
   <si>
     <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,10 +343,6 @@
   </si>
   <si>
     <t>NameNode和DataNode内部逻辑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hadoop3.0 高可用（HA）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1160,8 +1156,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1378,20 +1374,17 @@
       <c r="E18" s="1"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" s="11" customFormat="1" ht="27">
+    <row r="19" spans="1:6" s="11" customFormat="1" ht="26">
       <c r="A19" s="32"/>
-      <c r="B19" s="7" t="s">
-        <v>75</v>
-      </c>
+      <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="8"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1" ht="27">
       <c r="A20" s="32"/>
       <c r="B20" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1401,7 +1394,7 @@
     <row r="21" spans="1:6" s="11" customFormat="1" ht="27">
       <c r="A21" s="32"/>
       <c r="B21" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1411,7 +1404,7 @@
     <row r="22" spans="1:6" s="11" customFormat="1" ht="27">
       <c r="A22" s="32"/>
       <c r="B22" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1637,7 +1630,7 @@
     <row r="44" spans="1:6" ht="26" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1647,7 +1640,7 @@
     <row r="45" spans="1:6" ht="26" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1657,7 +1650,7 @@
     <row r="46" spans="1:6" ht="26" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1667,7 +1660,7 @@
     <row r="47" spans="1:6" ht="26" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1677,7 +1670,7 @@
     <row r="48" spans="1:6" ht="26" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1687,7 +1680,7 @@
     <row r="49" spans="1:6" ht="26" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1717,7 +1710,7 @@
     <row r="52" spans="1:6" ht="27">
       <c r="A52" s="32"/>
       <c r="B52" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
@@ -1779,7 +1772,7 @@
     <row r="58" spans="1:6" ht="27">
       <c r="A58" s="34"/>
       <c r="B58" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C58" s="9"/>
       <c r="D58" s="9"/>
@@ -1860,7 +1853,7 @@
     </row>
     <row r="66" spans="1:6" ht="27">
       <c r="A66" s="31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B66" s="7" t="s">
         <v>66</v>
@@ -1873,7 +1866,7 @@
     <row r="67" spans="1:6" ht="27">
       <c r="A67" s="32"/>
       <c r="B67" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="9"/>
@@ -1883,7 +1876,7 @@
     <row r="68" spans="1:6" ht="27">
       <c r="A68" s="32"/>
       <c r="B68" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="9"/>
@@ -1893,7 +1886,7 @@
     <row r="69" spans="1:6" ht="27">
       <c r="A69" s="32"/>
       <c r="B69" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -1903,7 +1896,7 @@
     <row r="70" spans="1:6" ht="27">
       <c r="A70" s="32"/>
       <c r="B70" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="9"/>
@@ -1913,7 +1906,7 @@
     <row r="71" spans="1:6" ht="27">
       <c r="A71" s="32"/>
       <c r="B71" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="9"/>
@@ -1923,7 +1916,7 @@
     <row r="72" spans="1:6" ht="27">
       <c r="A72" s="32"/>
       <c r="B72" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
@@ -1933,7 +1926,7 @@
     <row r="73" spans="1:6" ht="27">
       <c r="A73" s="32"/>
       <c r="B73" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="9"/>
@@ -1952,7 +1945,7 @@
     </row>
     <row r="75" spans="1:6" ht="27">
       <c r="A75" s="38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B75" s="7" t="s">
         <v>66</v>
@@ -2094,10 +2087,10 @@
     </row>
     <row r="89" spans="1:6" ht="27" customHeight="1">
       <c r="A89" s="35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9"/>
@@ -2107,7 +2100,7 @@
     <row r="90" spans="1:6" ht="27" customHeight="1">
       <c r="A90" s="36"/>
       <c r="B90" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="9"/>
       <c r="D90" s="9"/>
@@ -2117,7 +2110,7 @@
     <row r="91" spans="1:6" ht="27">
       <c r="A91" s="36"/>
       <c r="B91" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2127,7 +2120,7 @@
     <row r="92" spans="1:6" ht="27">
       <c r="A92" s="36"/>
       <c r="B92" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C92" s="9"/>
       <c r="D92" s="9"/>
@@ -2137,7 +2130,7 @@
     <row r="93" spans="1:6" ht="27">
       <c r="A93" s="36"/>
       <c r="B93" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C93" s="9"/>
       <c r="D93" s="9"/>
@@ -2147,7 +2140,7 @@
     <row r="94" spans="1:6" ht="27">
       <c r="A94" s="36"/>
       <c r="B94" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C94" s="9"/>
       <c r="D94" s="9"/>
@@ -2157,7 +2150,7 @@
     <row r="95" spans="1:6" ht="27">
       <c r="A95" s="36"/>
       <c r="B95" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C95" s="9"/>
       <c r="D95" s="9"/>
